--- a/data/pca/factorExposure/factorExposure_2010-01-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-01-29.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.006371311734181062</v>
+        <v>0.01720488554263827</v>
       </c>
       <c r="C2">
-        <v>0.01572007662197711</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.001043994533684672</v>
+      </c>
+      <c r="D2">
+        <v>-0.006752715739870466</v>
+      </c>
+      <c r="E2">
+        <v>-0.0001804895826920225</v>
+      </c>
+      <c r="F2">
+        <v>0.009554340870650567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.03277896309609016</v>
+        <v>0.09413193581143996</v>
       </c>
       <c r="C4">
-        <v>0.1244139773047696</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.01598643068796161</v>
+      </c>
+      <c r="D4">
+        <v>-0.08222170876210703</v>
+      </c>
+      <c r="E4">
+        <v>-0.02807244160099012</v>
+      </c>
+      <c r="F4">
+        <v>-0.03070577641714986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.04403134658676876</v>
+        <v>0.1565590851840654</v>
       </c>
       <c r="C6">
-        <v>0.1057256195507236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.02522166860084795</v>
+      </c>
+      <c r="D6">
+        <v>0.02339675389167084</v>
+      </c>
+      <c r="E6">
+        <v>-0.008651515068345408</v>
+      </c>
+      <c r="F6">
+        <v>-0.04727546021181857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.009695747982503668</v>
+        <v>0.06052381226252917</v>
       </c>
       <c r="C7">
-        <v>0.07435196626417725</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0008713393960179868</v>
+      </c>
+      <c r="D7">
+        <v>-0.05161200854404641</v>
+      </c>
+      <c r="E7">
+        <v>-0.01049315458427545</v>
+      </c>
+      <c r="F7">
+        <v>-0.04201506732050284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.00594220074587709</v>
+        <v>0.05833113855818233</v>
       </c>
       <c r="C8">
-        <v>0.05898711171052826</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01332663313466937</v>
+      </c>
+      <c r="D8">
+        <v>-0.03177682976710089</v>
+      </c>
+      <c r="E8">
+        <v>-0.01708769363340559</v>
+      </c>
+      <c r="F8">
+        <v>0.02813361660972212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02837411521292816</v>
+        <v>0.07160393325662867</v>
       </c>
       <c r="C9">
-        <v>0.09735234238233738</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.01179186068346137</v>
+      </c>
+      <c r="D9">
+        <v>-0.0844965956498392</v>
+      </c>
+      <c r="E9">
+        <v>-0.02290806957351082</v>
+      </c>
+      <c r="F9">
+        <v>-0.04639793834604936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.006784144950670251</v>
+        <v>0.09438786176501708</v>
       </c>
       <c r="C10">
-        <v>0.03367857025213952</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.01866661869232745</v>
+      </c>
+      <c r="D10">
+        <v>0.1708219270667606</v>
+      </c>
+      <c r="E10">
+        <v>0.037548676414814</v>
+      </c>
+      <c r="F10">
+        <v>0.05722493897212115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03109415850084123</v>
+        <v>0.08792105603128551</v>
       </c>
       <c r="C11">
-        <v>0.1071343694606682</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.0114288172171956</v>
+      </c>
+      <c r="D11">
+        <v>-0.1164104242034007</v>
+      </c>
+      <c r="E11">
+        <v>-0.04712437365990234</v>
+      </c>
+      <c r="F11">
+        <v>-0.01960184426103578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.02814317297684488</v>
+        <v>0.09254481836235616</v>
       </c>
       <c r="C12">
-        <v>0.1155234484046854</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.008867670791437417</v>
+      </c>
+      <c r="D12">
+        <v>-0.1290780237899243</v>
+      </c>
+      <c r="E12">
+        <v>-0.04714403112601904</v>
+      </c>
+      <c r="F12">
+        <v>-0.0231026889882338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.008322569288544227</v>
+        <v>0.04291380051012308</v>
       </c>
       <c r="C13">
-        <v>0.03960796448896575</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.003892022888552826</v>
+      </c>
+      <c r="D13">
+        <v>-0.04896910437837982</v>
+      </c>
+      <c r="E13">
+        <v>0.01099920881566166</v>
+      </c>
+      <c r="F13">
+        <v>-0.002101756067151533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01517962244035662</v>
+        <v>0.0222827265427808</v>
       </c>
       <c r="C14">
-        <v>0.02596654668484018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.0141031272748637</v>
+      </c>
+      <c r="D14">
+        <v>-0.03354766051259959</v>
+      </c>
+      <c r="E14">
+        <v>-0.01705001724964641</v>
+      </c>
+      <c r="F14">
+        <v>-0.01319056725545849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.0118773403052759</v>
+        <v>0.03142012033280966</v>
       </c>
       <c r="C15">
-        <v>0.02681729621492098</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.005171936408517143</v>
+      </c>
+      <c r="D15">
+        <v>-0.04512531442541656</v>
+      </c>
+      <c r="E15">
+        <v>-0.006538826673860479</v>
+      </c>
+      <c r="F15">
+        <v>-0.021765912770863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.01919803334620568</v>
+        <v>0.07326692118919305</v>
       </c>
       <c r="C16">
-        <v>0.1135710639415941</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.002376514954460443</v>
+      </c>
+      <c r="D16">
+        <v>-0.1259770265682702</v>
+      </c>
+      <c r="E16">
+        <v>-0.06244066774897896</v>
+      </c>
+      <c r="F16">
+        <v>-0.0229392277967292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02704992276591601</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.003376303812939195</v>
+      </c>
+      <c r="D18">
+        <v>-0.020230488448062</v>
+      </c>
+      <c r="E18">
+        <v>0.007054436068243471</v>
+      </c>
+      <c r="F18">
+        <v>0.008794139558369163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01435486593004934</v>
+        <v>0.05994314559832801</v>
       </c>
       <c r="C20">
-        <v>0.06673118583229178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.0005772638224243223</v>
+      </c>
+      <c r="D20">
+        <v>-0.07713875529918104</v>
+      </c>
+      <c r="E20">
+        <v>-0.05568235209152234</v>
+      </c>
+      <c r="F20">
+        <v>-0.02060503755807363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01081337094026165</v>
+        <v>0.03899911085632431</v>
       </c>
       <c r="C21">
-        <v>0.0213566223793349</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.006524050175817621</v>
+      </c>
+      <c r="D21">
+        <v>-0.03711230912376182</v>
+      </c>
+      <c r="E21">
+        <v>0.006275834125743405</v>
+      </c>
+      <c r="F21">
+        <v>0.02732389902373827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.002349041120743296</v>
+        <v>0.0451374005413404</v>
       </c>
       <c r="C22">
-        <v>0.03527927964204492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.0008916838136800639</v>
+      </c>
+      <c r="D22">
+        <v>-0.002216016421510289</v>
+      </c>
+      <c r="E22">
+        <v>-0.02922672895801691</v>
+      </c>
+      <c r="F22">
+        <v>0.03170807550542919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.002363499827589485</v>
+        <v>0.04514420093502575</v>
       </c>
       <c r="C23">
-        <v>0.0353150189502068</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.0009073464544502759</v>
+      </c>
+      <c r="D23">
+        <v>-0.002352308398469931</v>
+      </c>
+      <c r="E23">
+        <v>-0.02954232956725776</v>
+      </c>
+      <c r="F23">
+        <v>0.03123361068253885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02072891423983293</v>
+        <v>0.0798527016716391</v>
       </c>
       <c r="C24">
-        <v>0.111711765602194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.003047352172892914</v>
+      </c>
+      <c r="D24">
+        <v>-0.120134508315759</v>
+      </c>
+      <c r="E24">
+        <v>-0.05040603710818831</v>
+      </c>
+      <c r="F24">
+        <v>-0.023489235000998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.02554871236833419</v>
+        <v>0.08514173672430743</v>
       </c>
       <c r="C25">
-        <v>0.1180116374773662</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.005213391868382918</v>
+      </c>
+      <c r="D25">
+        <v>-0.1091356158206141</v>
+      </c>
+      <c r="E25">
+        <v>-0.03347955678956869</v>
+      </c>
+      <c r="F25">
+        <v>-0.02493955998653709</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.02370523628956559</v>
+        <v>0.05618241227811559</v>
       </c>
       <c r="C26">
-        <v>0.04723250565501631</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.01455569088483178</v>
+      </c>
+      <c r="D26">
+        <v>-0.04207946327324181</v>
+      </c>
+      <c r="E26">
+        <v>-0.02735879914438559</v>
+      </c>
+      <c r="F26">
+        <v>0.01141716213651697</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1228,199 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.006422366704015935</v>
+        <v>0.1412225874817449</v>
       </c>
       <c r="C28">
-        <v>0.02253038324476564</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.0180347407479191</v>
+      </c>
+      <c r="D28">
+        <v>0.2640131000218688</v>
+      </c>
+      <c r="E28">
+        <v>0.06997092989145832</v>
+      </c>
+      <c r="F28">
+        <v>-0.006769917445053929</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01533576001980207</v>
+        <v>0.02663255147021258</v>
       </c>
       <c r="C29">
-        <v>0.02833403657103777</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.008194761179807167</v>
+      </c>
+      <c r="D29">
+        <v>-0.03320552843493391</v>
+      </c>
+      <c r="E29">
+        <v>-0.01114159405795505</v>
+      </c>
+      <c r="F29">
+        <v>0.01186958050635626</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.02147554116544948</v>
+        <v>0.06175960073429752</v>
       </c>
       <c r="C30">
-        <v>0.1254547639426176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.004511228490681194</v>
+      </c>
+      <c r="D30">
+        <v>-0.08672077258034314</v>
+      </c>
+      <c r="E30">
+        <v>-0.02004633490347783</v>
+      </c>
+      <c r="F30">
+        <v>-0.0806539645497333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02486289836776964</v>
+        <v>0.04936601941734851</v>
       </c>
       <c r="C31">
-        <v>0.03455362867248787</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01527878649391644</v>
+      </c>
+      <c r="D31">
+        <v>-0.02527532696334028</v>
+      </c>
+      <c r="E31">
+        <v>-0.02742388204531991</v>
+      </c>
+      <c r="F31">
+        <v>0.003022661894276184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.01054478243734088</v>
+        <v>0.04906434191770231</v>
       </c>
       <c r="C32">
-        <v>0.0606057284853672</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.001274184856170292</v>
+      </c>
+      <c r="D32">
+        <v>-0.03650774676977254</v>
+      </c>
+      <c r="E32">
+        <v>-0.03116704753644366</v>
+      </c>
+      <c r="F32">
+        <v>0.0001687341635908947</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02684364218418147</v>
+        <v>0.08983007480292332</v>
       </c>
       <c r="C33">
-        <v>0.116340886367884</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.008600934315275166</v>
+      </c>
+      <c r="D33">
+        <v>-0.09778593398394675</v>
+      </c>
+      <c r="E33">
+        <v>-0.04528590747713028</v>
+      </c>
+      <c r="F33">
+        <v>-0.03315924170693083</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.03038605686801145</v>
+        <v>0.06817258247556057</v>
       </c>
       <c r="C34">
-        <v>0.09640481356361078</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01172363717928228</v>
+      </c>
+      <c r="D34">
+        <v>-0.1054985518165835</v>
+      </c>
+      <c r="E34">
+        <v>-0.03493290501137951</v>
+      </c>
+      <c r="F34">
+        <v>-0.03184768447876411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.003025309297565385</v>
+        <v>0.02434559543989222</v>
       </c>
       <c r="C35">
-        <v>0.01360369904158455</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.002333736690401278</v>
+      </c>
+      <c r="D35">
+        <v>-0.01295099207259837</v>
+      </c>
+      <c r="E35">
+        <v>-0.01178512342454589</v>
+      </c>
+      <c r="F35">
+        <v>-0.0008688840319708012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.0118612340304368</v>
+        <v>0.02538443639376693</v>
       </c>
       <c r="C36">
-        <v>0.02872015178998909</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.007341640115064548</v>
+      </c>
+      <c r="D36">
+        <v>-0.03981818116527895</v>
+      </c>
+      <c r="E36">
+        <v>-0.01559077177439215</v>
+      </c>
+      <c r="F36">
+        <v>-0.01420056917669504</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1428,99 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0008340553571871796</v>
+        <v>0.001560410840150237</v>
       </c>
       <c r="C38">
-        <v>0.005495078008356781</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.0002498407744561921</v>
+      </c>
+      <c r="D38">
+        <v>-0.0004661895125347355</v>
+      </c>
+      <c r="E38">
+        <v>-0.001059281301634164</v>
+      </c>
+      <c r="F38">
+        <v>0.0006953467330697226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04468163153438787</v>
+        <v>0.1070076102244971</v>
       </c>
       <c r="C39">
-        <v>0.1714999495758177</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.01686942084699954</v>
+      </c>
+      <c r="D39">
+        <v>-0.1531530884452131</v>
+      </c>
+      <c r="E39">
+        <v>-0.05971572213317224</v>
+      </c>
+      <c r="F39">
+        <v>-0.02814612183165315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.009613702672264818</v>
+        <v>0.03935642164158586</v>
       </c>
       <c r="C40">
-        <v>0.01325502837536379</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.007412697972718194</v>
+      </c>
+      <c r="D40">
+        <v>-0.03220931555818666</v>
+      </c>
+      <c r="E40">
+        <v>-0.002781844010570116</v>
+      </c>
+      <c r="F40">
+        <v>0.01793492571081984</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01415541296194378</v>
+        <v>0.02654269953582099</v>
       </c>
       <c r="C41">
-        <v>0.02113568214013037</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.006643481893287185</v>
+      </c>
+      <c r="D41">
+        <v>-0.01120797162505315</v>
+      </c>
+      <c r="E41">
+        <v>-0.01256724855154772</v>
+      </c>
+      <c r="F41">
+        <v>0.006785662478283701</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.01252160964562144</v>
+        <v>0.03983737995712004</v>
       </c>
       <c r="C43">
-        <v>0.02553398202243278</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.006827484110257818</v>
+      </c>
+      <c r="D43">
+        <v>-0.02047877182751577</v>
+      </c>
+      <c r="E43">
+        <v>-0.02525219418165259</v>
+      </c>
+      <c r="F43">
+        <v>0.01209274749311578</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.03548279198951134</v>
+        <v>0.07716532832392016</v>
       </c>
       <c r="C44">
-        <v>0.1335035560536376</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.02102917325999534</v>
+      </c>
+      <c r="D44">
+        <v>-0.09797997180945892</v>
+      </c>
+      <c r="E44">
+        <v>-0.06573646624999174</v>
+      </c>
+      <c r="F44">
+        <v>-0.1503340439503133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.004525222899305679</v>
+        <v>0.02396632349255939</v>
       </c>
       <c r="C46">
-        <v>0.01001873467060417</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.003719693573342657</v>
+      </c>
+      <c r="D46">
+        <v>-0.01274822022813928</v>
+      </c>
+      <c r="E46">
+        <v>-0.02186023790387135</v>
+      </c>
+      <c r="F46">
+        <v>0.003872043356493144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.0156001605001137</v>
+        <v>0.05081968996401624</v>
       </c>
       <c r="C47">
-        <v>0.0416128045379796</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.003592623069796868</v>
+      </c>
+      <c r="D47">
+        <v>-0.01265952967592964</v>
+      </c>
+      <c r="E47">
+        <v>-0.02299069018198214</v>
+      </c>
+      <c r="F47">
+        <v>0.03369676318556242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01438686772745305</v>
+        <v>0.04854800617838009</v>
       </c>
       <c r="C48">
-        <v>0.04692027100790651</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.002629257449012116</v>
+      </c>
+      <c r="D48">
+        <v>-0.05088081602554994</v>
+      </c>
+      <c r="E48">
+        <v>0.006116367112106795</v>
+      </c>
+      <c r="F48">
+        <v>-0.008631248402437883</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.04344332399241443</v>
+        <v>0.2025333890410836</v>
       </c>
       <c r="C49">
-        <v>0.2049402008697794</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.01862987191058976</v>
+      </c>
+      <c r="D49">
+        <v>0.01320066933224332</v>
+      </c>
+      <c r="E49">
+        <v>-0.03046365948686388</v>
+      </c>
+      <c r="F49">
+        <v>-0.03692755362539889</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.02042914359053202</v>
+        <v>0.04940276238392763</v>
       </c>
       <c r="C50">
-        <v>0.04220995186774223</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01132831036905534</v>
+      </c>
+      <c r="D50">
+        <v>-0.02432266481004889</v>
+      </c>
+      <c r="E50">
+        <v>-0.02976140798854772</v>
+      </c>
+      <c r="F50">
+        <v>-0.007583234081752131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0006968910878969869</v>
+        <v>0.001427336884092736</v>
       </c>
       <c r="C51">
-        <v>0.004410354515664251</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.0003656628213498167</v>
+      </c>
+      <c r="D51">
+        <v>0.001596676268911856</v>
+      </c>
+      <c r="E51">
+        <v>3.551266344678717e-06</v>
+      </c>
+      <c r="F51">
+        <v>-0.002917001732326422</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.03467483824318288</v>
+        <v>0.1461564711475021</v>
       </c>
       <c r="C52">
-        <v>0.1443021760811338</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.01497449783284315</v>
+      </c>
+      <c r="D52">
+        <v>-0.04683732717918556</v>
+      </c>
+      <c r="E52">
+        <v>-0.02090767220257436</v>
+      </c>
+      <c r="F52">
+        <v>-0.04554406512203053</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.03429837462158246</v>
+        <v>0.1739604494028518</v>
       </c>
       <c r="C53">
-        <v>0.157490040484586</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.01822091630208923</v>
+      </c>
+      <c r="D53">
+        <v>-0.005861091831162439</v>
+      </c>
+      <c r="E53">
+        <v>-0.03146788037802091</v>
+      </c>
+      <c r="F53">
+        <v>-0.07696187020316482</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01442506200220272</v>
+        <v>0.02143135248865943</v>
       </c>
       <c r="C54">
-        <v>0.05085171517744329</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01248829270175124</v>
+      </c>
+      <c r="D54">
+        <v>-0.03325258390020902</v>
+      </c>
+      <c r="E54">
+        <v>-0.01668990529626905</v>
+      </c>
+      <c r="F54">
+        <v>0.003622693513259255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.02617194676830403</v>
+        <v>0.1142774550228383</v>
       </c>
       <c r="C55">
-        <v>0.08861024159653466</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01623977909021657</v>
+      </c>
+      <c r="D55">
+        <v>-0.009860759664203855</v>
+      </c>
+      <c r="E55">
+        <v>-0.0280406777866684</v>
+      </c>
+      <c r="F55">
+        <v>-0.04956279263934463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.03759729077725905</v>
+        <v>0.1783926602571564</v>
       </c>
       <c r="C56">
-        <v>0.1596107490490753</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.01552265565281066</v>
+      </c>
+      <c r="D56">
+        <v>-0.002314070394605079</v>
+      </c>
+      <c r="E56">
+        <v>-0.03747934821350961</v>
+      </c>
+      <c r="F56">
+        <v>-0.05647656675625361</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.01466371823432837</v>
+        <v>0.04638217575692428</v>
       </c>
       <c r="C58">
-        <v>0.04420031913216256</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.0012433966461624</v>
+      </c>
+      <c r="D58">
+        <v>-0.06752648806647375</v>
+      </c>
+      <c r="E58">
+        <v>-0.02763911925859375</v>
+      </c>
+      <c r="F58">
+        <v>0.03921633351243166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.01455460503975836</v>
+        <v>0.1698517995653938</v>
       </c>
       <c r="C59">
-        <v>0.08170619524934387</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.01874113210801678</v>
+      </c>
+      <c r="D59">
+        <v>0.2210013142622586</v>
+      </c>
+      <c r="E59">
+        <v>0.04555710042143172</v>
+      </c>
+      <c r="F59">
+        <v>0.03241069030782603</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.0396253190903464</v>
+        <v>0.2343073511842012</v>
       </c>
       <c r="C60">
-        <v>0.2761609544865254</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.002938880916429319</v>
+      </c>
+      <c r="D60">
+        <v>-0.03903356603853982</v>
+      </c>
+      <c r="E60">
+        <v>-0.01078891721092577</v>
+      </c>
+      <c r="F60">
+        <v>0.001992993667443136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03224672217802674</v>
+        <v>0.08296211512984192</v>
       </c>
       <c r="C61">
-        <v>0.1307853246319965</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.01272532127031503</v>
+      </c>
+      <c r="D61">
+        <v>-0.1163581605879691</v>
+      </c>
+      <c r="E61">
+        <v>-0.03960253285438111</v>
+      </c>
+      <c r="F61">
+        <v>-0.01242255742575921</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.04062578952929167</v>
+        <v>0.1699285456945513</v>
       </c>
       <c r="C62">
-        <v>0.1667652288063724</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.01924495835997346</v>
+      </c>
+      <c r="D62">
+        <v>-0.007897285074329607</v>
+      </c>
+      <c r="E62">
+        <v>-0.03561111902568602</v>
+      </c>
+      <c r="F62">
+        <v>-0.03831681717088999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01319611395828948</v>
+        <v>0.0432525181255036</v>
       </c>
       <c r="C63">
-        <v>0.05610060554508538</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.002401151206726094</v>
+      </c>
+      <c r="D63">
+        <v>-0.05806785961576626</v>
+      </c>
+      <c r="E63">
+        <v>-0.01997666456488656</v>
+      </c>
+      <c r="F63">
+        <v>-0.004259074033796237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.02550181401143823</v>
+        <v>0.1102150987323146</v>
       </c>
       <c r="C64">
-        <v>0.1001076707277718</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01172570122107715</v>
+      </c>
+      <c r="D64">
+        <v>-0.04163286487566701</v>
+      </c>
+      <c r="E64">
+        <v>-0.02244356838888813</v>
+      </c>
+      <c r="F64">
+        <v>-0.02593933776815514</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.04584101197147628</v>
+        <v>0.1466474336609939</v>
       </c>
       <c r="C65">
-        <v>0.1061400850776595</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03198105488000904</v>
+      </c>
+      <c r="D65">
+        <v>0.04213239448913711</v>
+      </c>
+      <c r="E65">
+        <v>-0.002679057805117143</v>
+      </c>
+      <c r="F65">
+        <v>-0.03814662558173072</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.04420053559797161</v>
+        <v>0.127813499893447</v>
       </c>
       <c r="C66">
-        <v>0.2038811358039235</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.01487052069291021</v>
+      </c>
+      <c r="D66">
+        <v>-0.1415994002914521</v>
+      </c>
+      <c r="E66">
+        <v>-0.06789677752871466</v>
+      </c>
+      <c r="F66">
+        <v>-0.03112627238621578</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.01594791366350677</v>
+        <v>0.06314954884402112</v>
       </c>
       <c r="C67">
-        <v>0.06730896471031712</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.003256854529725601</v>
+      </c>
+      <c r="D67">
+        <v>-0.05520111477586449</v>
+      </c>
+      <c r="E67">
+        <v>-0.01857668905135141</v>
+      </c>
+      <c r="F67">
+        <v>0.031976189947261</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.01716776868890604</v>
+        <v>0.1161946272858881</v>
       </c>
       <c r="C68">
-        <v>0.02289881676736276</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.0279520575409683</v>
+      </c>
+      <c r="D68">
+        <v>0.2594016960466559</v>
+      </c>
+      <c r="E68">
+        <v>0.08758933365537394</v>
+      </c>
+      <c r="F68">
+        <v>-0.004322873943204951</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.009614168919805658</v>
+        <v>0.03934514193047049</v>
       </c>
       <c r="C69">
-        <v>0.03342046924598672</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.001217612445700415</v>
+      </c>
+      <c r="D69">
+        <v>-0.007659387372916009</v>
+      </c>
+      <c r="E69">
+        <v>-0.02328864508518476</v>
+      </c>
+      <c r="F69">
+        <v>0.0004704445577302906</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0002716120852008333</v>
+        <v>0.0629036664240626</v>
       </c>
       <c r="C70">
-        <v>0.03440240447868927</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.02846086881317653</v>
+      </c>
+      <c r="D70">
+        <v>-0.02842629429581092</v>
+      </c>
+      <c r="E70">
+        <v>0.04252791996089384</v>
+      </c>
+      <c r="F70">
+        <v>0.1870763787412995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.0212740474698374</v>
+        <v>0.1353796937267676</v>
       </c>
       <c r="C71">
-        <v>0.02688338434158952</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.03281906182681359</v>
+      </c>
+      <c r="D71">
+        <v>0.2734178549762994</v>
+      </c>
+      <c r="E71">
+        <v>0.09735148882534939</v>
+      </c>
+      <c r="F71">
+        <v>-0.01086062918254215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.03848894900235684</v>
+        <v>0.1412675168002258</v>
       </c>
       <c r="C72">
-        <v>0.1160304933261988</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.0255871975815296</v>
+      </c>
+      <c r="D72">
+        <v>-0.001083846795773946</v>
+      </c>
+      <c r="E72">
+        <v>-0.04034923137075153</v>
+      </c>
+      <c r="F72">
+        <v>-0.03658304882809301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.04317501255953049</v>
+        <v>0.2010203755640502</v>
       </c>
       <c r="C73">
-        <v>0.20887942595275</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.01286179856868629</v>
+      </c>
+      <c r="D73">
+        <v>-0.01350187030199519</v>
+      </c>
+      <c r="E73">
+        <v>-0.06390414055551163</v>
+      </c>
+      <c r="F73">
+        <v>-0.03925799788998846</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.02451281089539319</v>
+        <v>0.09493121289352346</v>
       </c>
       <c r="C74">
-        <v>0.1157441888197956</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01294833195833325</v>
+      </c>
+      <c r="D74">
+        <v>-0.01816250729229201</v>
+      </c>
+      <c r="E74">
+        <v>-0.04526219593926596</v>
+      </c>
+      <c r="F74">
+        <v>-0.05811023383755283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.04686765522786286</v>
+        <v>0.1288763596336372</v>
       </c>
       <c r="C75">
-        <v>0.132715756211001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02747342610708446</v>
+      </c>
+      <c r="D75">
+        <v>-0.03022462310520275</v>
+      </c>
+      <c r="E75">
+        <v>-0.05925437702666388</v>
+      </c>
+      <c r="F75">
+        <v>-0.02062641969623055</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.0005868126697298863</v>
+        <v>0.001415385901251523</v>
       </c>
       <c r="C76">
-        <v>0.005318010612896149</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.0003657840046202175</v>
+      </c>
+      <c r="D76">
+        <v>0.00105112434886457</v>
+      </c>
+      <c r="E76">
+        <v>-0.0004033876551898376</v>
+      </c>
+      <c r="F76">
+        <v>-0.001658702359750998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.02504661675722793</v>
+        <v>0.08045875042964705</v>
       </c>
       <c r="C77">
-        <v>0.1071280795828136</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.008586016881565944</v>
+      </c>
+      <c r="D77">
+        <v>-0.1189609470831758</v>
+      </c>
+      <c r="E77">
+        <v>-0.04074797591285993</v>
+      </c>
+      <c r="F77">
+        <v>-0.02799738631964832</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.05952353421013382</v>
+        <v>0.1013909770359844</v>
       </c>
       <c r="C78">
-        <v>0.1141804349320747</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03970080755306673</v>
+      </c>
+      <c r="D78">
+        <v>-0.1165739029334531</v>
+      </c>
+      <c r="E78">
+        <v>-0.07898897434020659</v>
+      </c>
+      <c r="F78">
+        <v>-0.04595272599523077</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.04086382449595442</v>
+        <v>0.1646544549174636</v>
       </c>
       <c r="C79">
-        <v>0.1446006709005509</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.02166117306150463</v>
+      </c>
+      <c r="D79">
+        <v>-0.01689184923158461</v>
+      </c>
+      <c r="E79">
+        <v>-0.04790566253276887</v>
+      </c>
+      <c r="F79">
+        <v>-0.01518849809855607</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.005707335460187243</v>
+        <v>0.08144837090313764</v>
       </c>
       <c r="C80">
-        <v>0.09875765086089001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.0005898082692715589</v>
+      </c>
+      <c r="D80">
+        <v>-0.05676793062420254</v>
+      </c>
+      <c r="E80">
+        <v>-0.03626245214810556</v>
+      </c>
+      <c r="F80">
+        <v>0.02585866024165402</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.04648363012408285</v>
+        <v>0.1229407089779397</v>
       </c>
       <c r="C81">
-        <v>0.1523717881387125</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03140838707047465</v>
+      </c>
+      <c r="D81">
+        <v>-0.0160155138366819</v>
+      </c>
+      <c r="E81">
+        <v>-0.05929691946364705</v>
+      </c>
+      <c r="F81">
+        <v>-0.01935948950244793</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.04018595446973842</v>
+        <v>0.1653729096302966</v>
       </c>
       <c r="C82">
-        <v>0.1711993305003029</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.02390784794735863</v>
+      </c>
+      <c r="D82">
+        <v>-0.005072477394209608</v>
+      </c>
+      <c r="E82">
+        <v>-0.0279835543654339</v>
+      </c>
+      <c r="F82">
+        <v>-0.08114773791601439</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.01727554334296832</v>
+        <v>0.06137930198230365</v>
       </c>
       <c r="C83">
-        <v>0.07943022652360615</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.003319758812254838</v>
+      </c>
+      <c r="D83">
+        <v>-0.04997660940086666</v>
+      </c>
+      <c r="E83">
+        <v>-0.005791841380575448</v>
+      </c>
+      <c r="F83">
+        <v>0.03249749238672489</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.02446342298879263</v>
+        <v>0.05836548025459001</v>
       </c>
       <c r="C84">
-        <v>0.07487711700948002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01092997072016226</v>
+      </c>
+      <c r="D84">
+        <v>-0.0659343145214082</v>
+      </c>
+      <c r="E84">
+        <v>-0.007399797038401173</v>
+      </c>
+      <c r="F84">
+        <v>-0.006070206764461394</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.04043152214188674</v>
+        <v>0.1378496800049233</v>
       </c>
       <c r="C85">
-        <v>0.1197138920974882</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.02733643912948681</v>
+      </c>
+      <c r="D85">
+        <v>-0.01084955295488892</v>
+      </c>
+      <c r="E85">
+        <v>-0.03944316242994683</v>
+      </c>
+      <c r="F85">
+        <v>-0.04823812134230499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.02063859100003967</v>
+        <v>0.09634372965423781</v>
       </c>
       <c r="C86">
-        <v>0.1114017128042998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.006559683415409969</v>
+      </c>
+      <c r="D86">
+        <v>-0.04016793313260535</v>
+      </c>
+      <c r="E86">
+        <v>-0.2122416702146794</v>
+      </c>
+      <c r="F86">
+        <v>0.9084443879400412</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.04529794144944119</v>
+        <v>0.09567381597098656</v>
       </c>
       <c r="C87">
-        <v>0.1084757082180459</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.02152446208529269</v>
+      </c>
+      <c r="D87">
+        <v>-0.09247184580441736</v>
+      </c>
+      <c r="E87">
+        <v>0.05320341216603459</v>
+      </c>
+      <c r="F87">
+        <v>-0.05109713680006712</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.01486481413500253</v>
+        <v>0.06083648407007205</v>
       </c>
       <c r="C88">
-        <v>0.05753700421966308</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.002536178138169381</v>
+      </c>
+      <c r="D88">
+        <v>-0.05066867324273109</v>
+      </c>
+      <c r="E88">
+        <v>-0.02528055822607696</v>
+      </c>
+      <c r="F88">
+        <v>-0.0143525441583697</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.002258301781665681</v>
+        <v>0.133448658379673</v>
       </c>
       <c r="C89">
-        <v>0.0502178985460393</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.01005687009932736</v>
+      </c>
+      <c r="D89">
+        <v>0.2511019352448632</v>
+      </c>
+      <c r="E89">
+        <v>0.09026113381305026</v>
+      </c>
+      <c r="F89">
+        <v>0.006673700294546275</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.02110990147830121</v>
+        <v>0.14770610580907</v>
       </c>
       <c r="C90">
-        <v>0.03131765877322842</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.02855208960453908</v>
+      </c>
+      <c r="D90">
+        <v>0.265954655437401</v>
+      </c>
+      <c r="E90">
+        <v>0.1117901628411978</v>
+      </c>
+      <c r="F90">
+        <v>0.003942480355659854</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.02407729693138475</v>
+        <v>0.1196073305490439</v>
       </c>
       <c r="C91">
-        <v>0.09192066150257988</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01798448565918914</v>
+      </c>
+      <c r="D91">
+        <v>0.01114778286545828</v>
+      </c>
+      <c r="E91">
+        <v>-0.05744923363003137</v>
+      </c>
+      <c r="F91">
+        <v>0.0001996212641514339</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.00187178043792965</v>
+        <v>0.1471527391527574</v>
       </c>
       <c r="C92">
-        <v>0.04806827964798774</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.02067860961240552</v>
+      </c>
+      <c r="D92">
+        <v>0.2911944141103618</v>
+      </c>
+      <c r="E92">
+        <v>0.1021543790861427</v>
+      </c>
+      <c r="F92">
+        <v>0.01597315211361929</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.01579329252793914</v>
+        <v>0.150652858674713</v>
       </c>
       <c r="C93">
-        <v>0.03422333958497323</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.02468687092189334</v>
+      </c>
+      <c r="D93">
+        <v>0.2660201080555046</v>
+      </c>
+      <c r="E93">
+        <v>0.07866545051925325</v>
+      </c>
+      <c r="F93">
+        <v>-0.003055423091814974</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.04857663095318836</v>
+        <v>0.1319118055307134</v>
       </c>
       <c r="C94">
-        <v>0.1563956494663789</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.0243610642628525</v>
+      </c>
+      <c r="D94">
+        <v>-0.04368580099542357</v>
+      </c>
+      <c r="E94">
+        <v>-0.05846339504113746</v>
+      </c>
+      <c r="F94">
+        <v>-0.03706475613670429</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.03879963059956652</v>
+        <v>0.1260076697363488</v>
       </c>
       <c r="C95">
-        <v>0.1300168614520678</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.004455507258918028</v>
+      </c>
+      <c r="D95">
+        <v>-0.09298247621836007</v>
+      </c>
+      <c r="E95">
+        <v>-0.047020935068974</v>
+      </c>
+      <c r="F95">
+        <v>0.01088382931849019</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.9686906494569748</v>
+        <v>0.1031681890690386</v>
       </c>
       <c r="C96">
-        <v>0.230795998463264</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.9881769559426506</v>
+      </c>
+      <c r="D96">
+        <v>0.03819829400464102</v>
+      </c>
+      <c r="E96">
+        <v>-0.05662228676365025</v>
+      </c>
+      <c r="F96">
+        <v>-0.04321001280082765</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.01909749209684945</v>
+        <v>0.1908578717221722</v>
       </c>
       <c r="C97">
-        <v>0.1694807301352994</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.008858305600304829</v>
+      </c>
+      <c r="D97">
+        <v>0.01724322806899761</v>
+      </c>
+      <c r="E97">
+        <v>-0.01602554507344403</v>
+      </c>
+      <c r="F97">
+        <v>0.09301511897595161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.03413451107003782</v>
+        <v>0.2060057711775956</v>
       </c>
       <c r="C98">
-        <v>0.1961322658989874</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.007363457555785807</v>
+      </c>
+      <c r="D98">
+        <v>-0.006853686313973571</v>
+      </c>
+      <c r="E98">
+        <v>0.08683048220644929</v>
+      </c>
+      <c r="F98">
+        <v>0.09528209172648915</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.003469384600347237</v>
+        <v>0.05575054067386696</v>
       </c>
       <c r="C99">
-        <v>0.05813221270168575</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.00454442547612774</v>
+      </c>
+      <c r="D99">
+        <v>-0.0387870564475508</v>
+      </c>
+      <c r="E99">
+        <v>-0.02371321991720982</v>
+      </c>
+      <c r="F99">
+        <v>-0.0002725262949232416</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.004466316817974785</v>
+        <v>0.1268706986383071</v>
       </c>
       <c r="C100">
-        <v>0.1348664845054924</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.05279725305776353</v>
+      </c>
+      <c r="D100">
+        <v>-0.3495223998151967</v>
+      </c>
+      <c r="E100">
+        <v>0.886656604053295</v>
+      </c>
+      <c r="F100">
+        <v>0.1373369380826158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01536749203025883</v>
+        <v>0.02655501793067407</v>
       </c>
       <c r="C101">
-        <v>0.02829381828134018</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.008202949875937981</v>
+      </c>
+      <c r="D101">
+        <v>-0.03290928968334041</v>
+      </c>
+      <c r="E101">
+        <v>-0.01058539820378039</v>
+      </c>
+      <c r="F101">
+        <v>0.01310285641631822</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
